--- a/Descargas/R15_15º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
+++ b/Descargas/R15_15º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B36" s="65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B46" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
